--- a/data/trans_dic/P24_6_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P24_6_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dolores musculares o de articulaciones con bastante o mucha frecuencia</t>
+          <t>Población con dolores musculares o de articulaciones con bastante o mucha frecuencia (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>23,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,18%</t>
+          <t>28,36%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>33,35%</t>
+          <t>33,9%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>31,74%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>32,39%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>26,44%</t>
+          <t>36,83%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>23,41%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>25,71%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>27,9%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>27,73%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>30,56%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,69; 21,68</t>
+          <t>11,96; 23,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,41; 22,03</t>
+          <t>10,89; 22,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,02; 24,59</t>
+          <t>16,55; 31,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,79; 25,63</t>
+          <t>16,0; 31,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,11; 36,67</t>
+          <t>15,58; 30,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,63; 39,47</t>
+          <t>22,3; 34,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,16; 38,5</t>
+          <t>27,77; 40,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,6; 39,79</t>
+          <t>25,4; 38,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,58; 28,32</t>
+          <t>25,78; 38,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,75; 30,15</t>
+          <t>29,98; 44,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,43; 30,48</t>
+          <t>18,86; 27,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>23,69; 31,44</t>
+          <t>20,87; 30,54</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>23,66; 33,28</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>22,67; 33,08</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>25,0; 35,75</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>24,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,77%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,8%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>33,75%</t>
+          <t>31,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,94%</t>
+          <t>33,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>26,43%</t>
+          <t>41,56%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>48,38%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
+          <t>27,48%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>29,73%</t>
+          <t>24,66%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>29,08%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>32,33%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>37,91%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,39; 22,52</t>
+          <t>9,8; 22,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,15; 21,26</t>
+          <t>11,37; 24,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,85; 26,79</t>
+          <t>17,67; 33,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,4; 25,29</t>
+          <t>16,17; 30,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,54; 41,28</t>
+          <t>19,77; 35,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,25; 36,86</t>
+          <t>30,8; 46,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,07; 40,09</t>
+          <t>24,17; 38,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,48; 46,63</t>
+          <t>25,24; 40,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,53; 31,24</t>
+          <t>34,58; 50,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,62; 27,79</t>
+          <t>39,66; 59,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>22,85; 31,76</t>
+          <t>22,39; 33,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,63; 33,74</t>
+          <t>19,67; 30,01</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>24,06; 35,08</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>26,93; 37,99</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>31,8; 46,22</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>32,54%</t>
+          <t>45,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>52,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>38,26%</t>
+          <t>34,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>38,68%</t>
+          <t>31,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>37,18%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23,1%</t>
+          <t>33,99%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>27,21%</t>
+          <t>35,59%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>27,61%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>25,45%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>23,4%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>39,99%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>44,38%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,5; 29,74</t>
+          <t>6,43; 39,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,59; 28,85</t>
+          <t>5,28; 38,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,3; 29,39</t>
+          <t>1,98; 24,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,8; 54,88</t>
+          <t>21,4; 76,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,01; 42,08</t>
+          <t>26,56; 81,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,42; 49,73</t>
+          <t>21,07; 49,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,97; 51,51</t>
+          <t>18,08; 49,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,02; 42,8</t>
+          <t>23,26; 53,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,39; 33,0</t>
+          <t>19,66; 50,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,06; 35,37</t>
+          <t>21,52; 51,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>20,12; 36,96</t>
+          <t>16,23; 40,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,83; 45,68</t>
+          <t>14,77; 38,56</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>12,56; 35,34</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>25,74; 59,51</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>29,05; 63,39</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>22,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,85%</t>
+          <t>28,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,23%</t>
+          <t>32,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>34,05%</t>
+          <t>32,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>32,77%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>36,27%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>41,22%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>25,49%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>25,26%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>27,93%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>30,89%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>34,92%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,14; 20,34</t>
+          <t>13,21; 21,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,49; 20,13</t>
+          <t>12,5; 21,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,03; 23,0</t>
+          <t>17,78; 27,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,9; 25,85</t>
+          <t>20,16; 32,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,11; 36,37</t>
+          <t>22,1; 36,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,37; 37,14</t>
+          <t>28,52; 37,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,19; 38,04</t>
+          <t>27,89; 37,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,28; 39,81</t>
+          <t>28,33; 37,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,1; 28,17</t>
+          <t>31,48; 41,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,73; 28,1</t>
+          <t>36,25; 48,16</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,42; 29,66</t>
+          <t>22,21; 28,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,13; 31,64</t>
+          <t>21,88; 28,26</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>24,45; 31,58</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>27,12; 34,7</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>30,63; 39,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolores musculares o de articulaciones con bastante o mucha frecuencia (tasa de respuesta: 99,93%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>64085</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>68907</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>86010</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>85912</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>122372</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>123481</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>172508</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>133647</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>131996</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>207562</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>187567</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>241415</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>219657</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>217907</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>329934</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>43754; 86989</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>46840; 96144</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>60605; 115968</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>60524; 117341</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>80388; 159843</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>97094; 151769</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>141320; 208587</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>106969; 162440</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>105060; 158611</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>168984; 248767</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>151075; 222962</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>195990; 286705</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>186280; 262006</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>178114; 259934</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>269929; 385940</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>47249</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>60936</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>79431</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>73401</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>110964</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>132710</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>132611</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>110584</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>139219</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>209577</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>179959</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>193547</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>190015</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>212620</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>320542</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>29847; 68051</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>40862; 88926</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>56266; 105203</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>52174; 98228</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>81522; 146737</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>107829; 161594</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>102807; 163825</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>84573; 136505</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>115842; 169573</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>171829; 256731</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>146597; 219373</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>154380; 235538</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>157233; 229234</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>177114; 249825</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>268906; 390782</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17519</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19676</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7385</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>39172</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>62782</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>28716</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>31977</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>30318</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>28062</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>39633</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>46235</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>51653</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>37703</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>67234</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>102414</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5453; 33471</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5375; 39143</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1575; 19306</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18315; 65634</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>31715; 97130</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>17406; 40680</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18295; 50111</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18967; 43735</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16228; 41581</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>23963; 56844</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>27175; 67601</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>29966; 78252</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>20243; 56948</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>43281; 100062</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>67023; 146263</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>128853</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>149519</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>172827</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>198484</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>296118</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>284907</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>337097</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>274548</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>299277</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>456771</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>413760</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>486616</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>447375</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>497762</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>752890</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>99777; 162991</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>111375; 187329</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>135883; 212528</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>158539; 258880</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>231496; 387504</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>247578; 324994</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>288762; 385418</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>237305; 313306</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>259719; 340886</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>401704; 533663</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>360549; 465999</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>421606; 544493</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>391639; 505800</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>437005; 559267</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>660240; 853342</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
